--- a/team_specific_matrix/California_B.xlsx
+++ b/team_specific_matrix/California_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1756756756756757</v>
+        <v>0.1857707509881423</v>
       </c>
       <c r="C2">
-        <v>0.5594594594594594</v>
+        <v>0.549407114624506</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01891891891891892</v>
+        <v>0.01383399209486166</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.002702702702702703</v>
+        <v>0.001976284584980237</v>
       </c>
       <c r="P2">
-        <v>0.1486486486486487</v>
+        <v>0.1482213438735178</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0945945945945946</v>
+        <v>0.1007905138339921</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01777777777777778</v>
+        <v>0.02033898305084746</v>
       </c>
       <c r="C3">
-        <v>0.02666666666666667</v>
+        <v>0.04067796610169491</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02666666666666667</v>
+        <v>0.02033898305084746</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7866666666666666</v>
+        <v>0.7762711864406779</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1422222222222222</v>
+        <v>0.1423728813559322</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6547619047619048</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.303030303030303</v>
+        <v>0.2976190476190476</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07213114754098361</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="E6">
-        <v>0.003278688524590164</v>
+        <v>0.004938271604938272</v>
       </c>
       <c r="F6">
-        <v>0.04918032786885246</v>
+        <v>0.04197530864197531</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2459016393442623</v>
+        <v>0.254320987654321</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02622950819672131</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1540983606557377</v>
+        <v>0.1654320987654321</v>
       </c>
       <c r="R6">
-        <v>0.07540983606557378</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S6">
-        <v>0.3737704918032787</v>
+        <v>0.3654320987654321</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0946969696969697</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02651515151515152</v>
+        <v>0.03403141361256545</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07954545454545454</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1325757575757576</v>
+        <v>0.1465968586387434</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01893939393939394</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1704545454545454</v>
+        <v>0.1675392670157068</v>
       </c>
       <c r="R7">
-        <v>0.05681818181818182</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="S7">
-        <v>0.4204545454545455</v>
+        <v>0.4162303664921466</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1137184115523466</v>
+        <v>0.1082887700534759</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02346570397111913</v>
+        <v>0.01871657754010695</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06137184115523465</v>
+        <v>0.06283422459893048</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0812274368231047</v>
+        <v>0.08689839572192513</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01624548736462094</v>
+        <v>0.01871657754010695</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2129963898916968</v>
+        <v>0.213903743315508</v>
       </c>
       <c r="R8">
-        <v>0.09205776173285199</v>
+        <v>0.08422459893048129</v>
       </c>
       <c r="S8">
-        <v>0.3989169675090253</v>
+        <v>0.4064171122994653</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07782101167315175</v>
+        <v>0.08732394366197183</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01556420233463035</v>
+        <v>0.01690140845070422</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07782101167315175</v>
+        <v>0.07887323943661972</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1089494163424125</v>
+        <v>0.1042253521126761</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03891050583657588</v>
+        <v>0.03098591549295775</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1673151750972763</v>
+        <v>0.1633802816901408</v>
       </c>
       <c r="R9">
-        <v>0.08560311284046693</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="S9">
-        <v>0.4280155642023346</v>
+        <v>0.4338028169014084</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09652736904061213</v>
+        <v>0.1042039355992844</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02707474985285462</v>
+        <v>0.02549194991055456</v>
       </c>
       <c r="E10">
-        <v>0.0005885815185403178</v>
+        <v>0.0004472271914132379</v>
       </c>
       <c r="F10">
-        <v>0.06415538552089464</v>
+        <v>0.06618962432915922</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1347851677457328</v>
+        <v>0.1122540250447227</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02177751618599176</v>
+        <v>0.01967799642218247</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2218952324896998</v>
+        <v>0.2101967799642218</v>
       </c>
       <c r="R10">
-        <v>0.062978222483814</v>
+        <v>0.07379248658318426</v>
       </c>
       <c r="S10">
-        <v>0.3702177751618599</v>
+        <v>0.3877459749552773</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1382488479262673</v>
+        <v>0.1468646864686469</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08755760368663594</v>
+        <v>0.08250825082508251</v>
       </c>
       <c r="K11">
-        <v>0.2073732718894009</v>
+        <v>0.202970297029703</v>
       </c>
       <c r="L11">
-        <v>0.5552995391705069</v>
+        <v>0.5561056105610561</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01152073732718894</v>
+        <v>0.01155115511551155</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7015503875968992</v>
+        <v>0.6887052341597796</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2248062015503876</v>
+        <v>0.2286501377410468</v>
       </c>
       <c r="K12">
-        <v>0.01162790697674419</v>
+        <v>0.01101928374655647</v>
       </c>
       <c r="L12">
-        <v>0.02325581395348837</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03875968992248062</v>
+        <v>0.04683195592286502</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5614035087719298</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1052631578947368</v>
+        <v>0.0898876404494382</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03236245954692556</v>
+        <v>0.03073286052009456</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1197411003236246</v>
+        <v>0.1205673758865248</v>
       </c>
       <c r="I15">
-        <v>0.07443365695792881</v>
+        <v>0.08037825059101655</v>
       </c>
       <c r="J15">
-        <v>0.3915857605177994</v>
+        <v>0.3782505910165485</v>
       </c>
       <c r="K15">
-        <v>0.05825242718446602</v>
+        <v>0.05437352245862884</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006472491909385114</v>
+        <v>0.009456264775413711</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05825242718446602</v>
+        <v>0.06146572104018912</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2588996763754045</v>
+        <v>0.2647754137115839</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01515151515151515</v>
+        <v>0.01994301994301994</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1628787878787879</v>
+        <v>0.150997150997151</v>
       </c>
       <c r="I16">
-        <v>0.08333333333333333</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="J16">
-        <v>0.375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K16">
-        <v>0.1060606060606061</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.003787878787878788</v>
+        <v>0.005698005698005698</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06060606060606061</v>
+        <v>0.05698005698005698</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1931818181818182</v>
+        <v>0.1766381766381766</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0141287284144427</v>
+        <v>0.02085889570552147</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1554160125588697</v>
+        <v>0.1779141104294479</v>
       </c>
       <c r="I17">
-        <v>0.09262166405023547</v>
+        <v>0.09570552147239264</v>
       </c>
       <c r="J17">
-        <v>0.4222919937205651</v>
+        <v>0.3938650306748466</v>
       </c>
       <c r="K17">
-        <v>0.1098901098901099</v>
+        <v>0.1092024539877301</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01883830455259027</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.001226993865030675</v>
       </c>
       <c r="O17">
-        <v>0.06279434850863422</v>
+        <v>0.06257668711656442</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1240188383045526</v>
+        <v>0.1141104294478528</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02727272727272727</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1409090909090909</v>
+        <v>0.1812297734627832</v>
       </c>
       <c r="I18">
-        <v>0.07272727272727272</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="J18">
-        <v>0.4</v>
+        <v>0.3818770226537217</v>
       </c>
       <c r="K18">
-        <v>0.1136363636363636</v>
+        <v>0.1035598705501618</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01363636363636364</v>
+        <v>0.0226537216828479</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07727272727272727</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1545454545454545</v>
+        <v>0.1359223300970874</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02268760907504363</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2018615474112856</v>
+        <v>0.1899535669058675</v>
       </c>
       <c r="I19">
-        <v>0.07911576497963932</v>
+        <v>0.07978049810046434</v>
       </c>
       <c r="J19">
-        <v>0.3531122745782432</v>
+        <v>0.3541578725200507</v>
       </c>
       <c r="K19">
-        <v>0.118673647469459</v>
+        <v>0.122836639932461</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02268760907504363</v>
+        <v>0.02448290417897847</v>
       </c>
       <c r="N19">
-        <v>0.001745200698080279</v>
+        <v>0.00295483326298016</v>
       </c>
       <c r="O19">
-        <v>0.07038976148923792</v>
+        <v>0.07429295061207261</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1297265852239674</v>
+        <v>0.13212325875897</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/California_B.xlsx
+++ b/team_specific_matrix/California_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1857707509881423</v>
+        <v>0.1912568306010929</v>
       </c>
       <c r="C2">
-        <v>0.549407114624506</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01383399209486166</v>
+        <v>0.01457194899817851</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001976284584980237</v>
+        <v>0.001821493624772313</v>
       </c>
       <c r="P2">
-        <v>0.1482213438735178</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1007905138339921</v>
+        <v>0.1038251366120219</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02033898305084746</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C3">
-        <v>0.04067796610169491</v>
+        <v>0.04126984126984127</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02033898305084746</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7762711864406779</v>
+        <v>0.7682539682539683</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1423728813559322</v>
+        <v>0.1492063492063492</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04761904761904762</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6547619047619048</v>
+        <v>0.6555555555555556</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2976190476190476</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06666666666666667</v>
+        <v>0.07466063348416289</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002469135802469136</v>
+        <v>0.002262443438914027</v>
       </c>
       <c r="E6">
-        <v>0.004938271604938272</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="F6">
-        <v>0.04197530864197531</v>
+        <v>0.04524886877828054</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.254320987654321</v>
+        <v>0.251131221719457</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02469135802469136</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1654320987654321</v>
+        <v>0.1742081447963801</v>
       </c>
       <c r="R6">
-        <v>0.07407407407407407</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="S6">
-        <v>0.3654320987654321</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08900523560209424</v>
+        <v>0.0891566265060241</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03403141361256545</v>
+        <v>0.03373493975903614</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06806282722513089</v>
+        <v>0.06746987951807229</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1465968586387434</v>
+        <v>0.1397590361445783</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01570680628272251</v>
+        <v>0.01686746987951807</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1675392670157068</v>
+        <v>0.1662650602409639</v>
       </c>
       <c r="R7">
-        <v>0.06282722513089005</v>
+        <v>0.06265060240963856</v>
       </c>
       <c r="S7">
-        <v>0.4162303664921466</v>
+        <v>0.4240963855421687</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1082887700534759</v>
+        <v>0.1056511056511057</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01871657754010695</v>
+        <v>0.01842751842751843</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06283422459893048</v>
+        <v>0.06511056511056511</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08689839572192513</v>
+        <v>0.08845208845208845</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01871657754010695</v>
+        <v>0.0171990171990172</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.213903743315508</v>
+        <v>0.2137592137592138</v>
       </c>
       <c r="R8">
-        <v>0.08422459893048129</v>
+        <v>0.08476658476658476</v>
       </c>
       <c r="S8">
-        <v>0.4064171122994653</v>
+        <v>0.4066339066339066</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08732394366197183</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01690140845070422</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07887323943661972</v>
+        <v>0.08201058201058201</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1042253521126761</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03098591549295775</v>
+        <v>0.0291005291005291</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1633802816901408</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="R9">
-        <v>0.08450704225352113</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="S9">
-        <v>0.4338028169014084</v>
+        <v>0.4232804232804233</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1042039355992844</v>
+        <v>0.103419516263553</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02549194991055456</v>
+        <v>0.02460383653044203</v>
       </c>
       <c r="E10">
-        <v>0.0004472271914132379</v>
+        <v>0.0004170141784820684</v>
       </c>
       <c r="F10">
-        <v>0.06618962432915922</v>
+        <v>0.06797331109257715</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1122540250447227</v>
+        <v>0.1117597998331943</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01967799642218247</v>
+        <v>0.02001668056713928</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2101967799642218</v>
+        <v>0.2093411175979983</v>
       </c>
       <c r="R10">
-        <v>0.07379248658318426</v>
+        <v>0.07422852376980818</v>
       </c>
       <c r="S10">
-        <v>0.3877459749552773</v>
+        <v>0.3882402001668057</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1468646864686469</v>
+        <v>0.1498470948012232</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08250825082508251</v>
+        <v>0.07951070336391437</v>
       </c>
       <c r="K11">
-        <v>0.202970297029703</v>
+        <v>0.2033639143730887</v>
       </c>
       <c r="L11">
-        <v>0.5561056105610561</v>
+        <v>0.5565749235474006</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01155115511551155</v>
+        <v>0.01070336391437309</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6887052341597796</v>
+        <v>0.6820512820512821</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2286501377410468</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="K12">
-        <v>0.01101928374655647</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="L12">
-        <v>0.02479338842975207</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04683195592286502</v>
+        <v>0.05128205128205128</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5730337078651685</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3370786516853932</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0898876404494382</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03073286052009456</v>
+        <v>0.03125</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1205673758865248</v>
+        <v>0.1316964285714286</v>
       </c>
       <c r="I15">
-        <v>0.08037825059101655</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="J15">
-        <v>0.3782505910165485</v>
+        <v>0.3683035714285715</v>
       </c>
       <c r="K15">
-        <v>0.05437352245862884</v>
+        <v>0.05580357142857143</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009456264775413711</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06146572104018912</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2647754137115839</v>
+        <v>0.2700892857142857</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01994301994301994</v>
+        <v>0.01876675603217158</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.150997150997151</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="I16">
-        <v>0.09401709401709402</v>
+        <v>0.09651474530831099</v>
       </c>
       <c r="J16">
-        <v>0.3846153846153846</v>
+        <v>0.3780160857908847</v>
       </c>
       <c r="K16">
-        <v>0.1111111111111111</v>
+        <v>0.1206434316353887</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005698005698005698</v>
+        <v>0.005361930294906166</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05698005698005698</v>
+        <v>0.05630026809651475</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1766381766381766</v>
+        <v>0.1689008042895442</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02085889570552147</v>
+        <v>0.02043132803632236</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1779141104294479</v>
+        <v>0.1736662883087401</v>
       </c>
       <c r="I17">
-        <v>0.09570552147239264</v>
+        <v>0.09534619750283768</v>
       </c>
       <c r="J17">
-        <v>0.3938650306748466</v>
+        <v>0.3961407491486947</v>
       </c>
       <c r="K17">
-        <v>0.1092024539877301</v>
+        <v>0.1135073779795687</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0245398773006135</v>
+        <v>0.02610669693530079</v>
       </c>
       <c r="N17">
-        <v>0.001226993865030675</v>
+        <v>0.001135073779795687</v>
       </c>
       <c r="O17">
-        <v>0.06257668711656442</v>
+        <v>0.06242905788876277</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1141104294478528</v>
+        <v>0.1112372304199773</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02912621359223301</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1812297734627832</v>
+        <v>0.182089552238806</v>
       </c>
       <c r="I18">
-        <v>0.07766990291262135</v>
+        <v>0.07761194029850746</v>
       </c>
       <c r="J18">
-        <v>0.3818770226537217</v>
+        <v>0.3850746268656716</v>
       </c>
       <c r="K18">
-        <v>0.1035598705501618</v>
+        <v>0.1014925373134328</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0226537216828479</v>
+        <v>0.0208955223880597</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06796116504854369</v>
+        <v>0.06567164179104477</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1359223300970874</v>
+        <v>0.1373134328358209</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01941747572815534</v>
+        <v>0.01845308205732234</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1899535669058675</v>
+        <v>0.1923831959167648</v>
       </c>
       <c r="I19">
-        <v>0.07978049810046434</v>
+        <v>0.07930899096976836</v>
       </c>
       <c r="J19">
-        <v>0.3541578725200507</v>
+        <v>0.3561052218296035</v>
       </c>
       <c r="K19">
-        <v>0.122836639932461</v>
+        <v>0.1209265802905379</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02448290417897847</v>
+        <v>0.02552021986650962</v>
       </c>
       <c r="N19">
-        <v>0.00295483326298016</v>
+        <v>0.002748331370239498</v>
       </c>
       <c r="O19">
-        <v>0.07429295061207261</v>
+        <v>0.07302709069493522</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.13212325875897</v>
+        <v>0.1315272870043188</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/California_B.xlsx
+++ b/team_specific_matrix/California_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1912568306010929</v>
+        <v>0.1951754385964912</v>
       </c>
       <c r="C2">
-        <v>0.5409836065573771</v>
+        <v>0.5504385964912281</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01457194899817851</v>
+        <v>0.01535087719298246</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001821493624772313</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="P2">
-        <v>0.1475409836065574</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1038251366120219</v>
+        <v>0.09210526315789473</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02222222222222222</v>
+        <v>0.01691729323308271</v>
       </c>
       <c r="C3">
-        <v>0.04126984126984127</v>
+        <v>0.04135338345864661</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01904761904761905</v>
+        <v>0.03007518796992481</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7682539682539683</v>
+        <v>0.7481203007518797</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1492063492063492</v>
+        <v>0.1635338345864662</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04444444444444445</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6555555555555556</v>
+        <v>0.6903225806451613</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.2709677419354839</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07466063348416289</v>
+        <v>0.08368794326241134</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002262443438914027</v>
+        <v>0.005673758865248227</v>
       </c>
       <c r="E6">
-        <v>0.004524886877828055</v>
+        <v>0.002836879432624114</v>
       </c>
       <c r="F6">
-        <v>0.04524886877828054</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.251131221719457</v>
+        <v>0.2397163120567376</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02262443438914027</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1742081447963801</v>
+        <v>0.1588652482269504</v>
       </c>
       <c r="R6">
-        <v>0.07239819004524888</v>
+        <v>0.06950354609929078</v>
       </c>
       <c r="S6">
-        <v>0.3529411764705883</v>
+        <v>0.3517730496453901</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0891566265060241</v>
+        <v>0.0840064620355412</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03373493975903614</v>
+        <v>0.02746365105008077</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.001615508885298869</v>
       </c>
       <c r="F7">
-        <v>0.06746987951807229</v>
+        <v>0.06946688206785137</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1397590361445783</v>
+        <v>0.1373182552504039</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01686746987951807</v>
+        <v>0.01938610662358643</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1662650602409639</v>
+        <v>0.1663974151857835</v>
       </c>
       <c r="R7">
-        <v>0.06265060240963856</v>
+        <v>0.06946688206785137</v>
       </c>
       <c r="S7">
-        <v>0.4240963855421687</v>
+        <v>0.4248788368336026</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1056511056511057</v>
+        <v>0.1051454138702461</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01842751842751843</v>
+        <v>0.01864280387770321</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06511056511056511</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08845208845208845</v>
+        <v>0.09619686800894854</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0171990171990172</v>
+        <v>0.01640566741237882</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2137592137592138</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="R8">
-        <v>0.08476658476658476</v>
+        <v>0.08650260999254288</v>
       </c>
       <c r="S8">
-        <v>0.4066339066339066</v>
+        <v>0.4064131245339299</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0873015873015873</v>
+        <v>0.090625</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02116402116402116</v>
+        <v>0.021875</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08201058201058201</v>
+        <v>0.07968749999999999</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1005291005291005</v>
+        <v>0.109375</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0291005291005291</v>
+        <v>0.0234375</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1693121693121693</v>
+        <v>0.165625</v>
       </c>
       <c r="R9">
-        <v>0.0873015873015873</v>
+        <v>0.1</v>
       </c>
       <c r="S9">
-        <v>0.4232804232804233</v>
+        <v>0.409375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.103419516263553</v>
+        <v>0.1046099290780142</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02460383653044203</v>
+        <v>0.02608915906788247</v>
       </c>
       <c r="E10">
-        <v>0.0004170141784820684</v>
+        <v>0.001266464032421479</v>
       </c>
       <c r="F10">
-        <v>0.06797331109257715</v>
+        <v>0.06433637284701114</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1117597998331943</v>
+        <v>0.1162613981762918</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02001668056713928</v>
+        <v>0.02077001013171226</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2093411175979983</v>
+        <v>0.2084599797365755</v>
       </c>
       <c r="R10">
-        <v>0.07422852376980818</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="S10">
-        <v>0.3882402001668057</v>
+        <v>0.378419452887538</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1498470948012232</v>
+        <v>0.1440162271805274</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07951070336391437</v>
+        <v>0.09533468559837728</v>
       </c>
       <c r="K11">
-        <v>0.2033639143730887</v>
+        <v>0.2038539553752536</v>
       </c>
       <c r="L11">
-        <v>0.5565749235474006</v>
+        <v>0.5456389452332657</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01070336391437309</v>
+        <v>0.01115618661257606</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6820512820512821</v>
+        <v>0.6892361111111112</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2333333333333333</v>
+        <v>0.2256944444444444</v>
       </c>
       <c r="K12">
-        <v>0.01025641025641026</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="L12">
-        <v>0.02307692307692308</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05128205128205128</v>
+        <v>0.04513888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="G13">
-        <v>0.6020408163265306</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3163265306122449</v>
+        <v>0.2620689655172414</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08163265306122448</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03125</v>
+        <v>0.02989130434782609</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1316964285714286</v>
+        <v>0.1331521739130435</v>
       </c>
       <c r="I15">
-        <v>0.07589285714285714</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="J15">
-        <v>0.3683035714285715</v>
+        <v>0.3668478260869565</v>
       </c>
       <c r="K15">
-        <v>0.05580357142857143</v>
+        <v>0.05706521739130434</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008928571428571428</v>
+        <v>0.006793478260869565</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05803571428571429</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2700892857142857</v>
+        <v>0.2486413043478261</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01876675603217158</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1554959785522788</v>
+        <v>0.1629032258064516</v>
       </c>
       <c r="I16">
-        <v>0.09651474530831099</v>
+        <v>0.1032258064516129</v>
       </c>
       <c r="J16">
-        <v>0.3780160857908847</v>
+        <v>0.3854838709677419</v>
       </c>
       <c r="K16">
-        <v>0.1206434316353887</v>
+        <v>0.1064516129032258</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005361930294906166</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05630026809651475</v>
+        <v>0.05967741935483871</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1689008042895442</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02043132803632236</v>
+        <v>0.01981599433828733</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1736662883087401</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="I17">
-        <v>0.09534619750283768</v>
+        <v>0.1012031139419674</v>
       </c>
       <c r="J17">
-        <v>0.3961407491486947</v>
+        <v>0.4048124557678698</v>
       </c>
       <c r="K17">
-        <v>0.1135073779795687</v>
+        <v>0.1019108280254777</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02610669693530079</v>
+        <v>0.02335456475583864</v>
       </c>
       <c r="N17">
-        <v>0.001135073779795687</v>
+        <v>0.0007077140835102619</v>
       </c>
       <c r="O17">
-        <v>0.06242905788876277</v>
+        <v>0.06086341118188252</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1112372304199773</v>
+        <v>0.1153573956121727</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02985074626865672</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.182089552238806</v>
+        <v>0.1726495726495726</v>
       </c>
       <c r="I18">
-        <v>0.07761194029850746</v>
+        <v>0.08717948717948718</v>
       </c>
       <c r="J18">
-        <v>0.3850746268656716</v>
+        <v>0.4051282051282051</v>
       </c>
       <c r="K18">
-        <v>0.1014925373134328</v>
+        <v>0.1042735042735043</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0208955223880597</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06567164179104477</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1373134328358209</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01845308205732234</v>
+        <v>0.01708343649418173</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1923831959167648</v>
+        <v>0.2002971032433771</v>
       </c>
       <c r="I19">
-        <v>0.07930899096976836</v>
+        <v>0.08195097796484278</v>
       </c>
       <c r="J19">
-        <v>0.3561052218296035</v>
+        <v>0.3651894033176529</v>
       </c>
       <c r="K19">
-        <v>0.1209265802905379</v>
+        <v>0.1121564743748453</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02552021986650962</v>
+        <v>0.02352067343401832</v>
       </c>
       <c r="N19">
-        <v>0.002748331370239498</v>
+        <v>0.00198068828918049</v>
       </c>
       <c r="O19">
-        <v>0.07302709069493522</v>
+        <v>0.07303788066353058</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1315272870043188</v>
+        <v>0.1247833622183709</v>
       </c>
     </row>
   </sheetData>
